--- a/DailyReportList.xlsx
+++ b/DailyReportList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffWu\Documents\yanghaimei\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wujf_nuc\Documents\GitHub\ReportCollation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6701006-E63A-4F58-A1C1-72F12CDE267E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F818FE-879A-4FFE-AEFC-253DDB25751B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2450" windowWidth="18340" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$102</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>安天宇</t>
   </si>
@@ -87,9 +87,6 @@
     <t>刘艳</t>
   </si>
   <si>
-    <t>孙俊丽</t>
-  </si>
-  <si>
     <t>山聪</t>
   </si>
   <si>
@@ -354,6 +351,22 @@
   </si>
   <si>
     <t>依斯坎旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵闯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎利娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李彦锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,20 +692,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
-      </c>
-      <c r="B1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -708,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -724,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -732,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -740,7 +753,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -756,7 +769,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -764,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +785,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -820,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -836,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -844,7 +857,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -852,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -860,7 +873,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -868,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -900,7 +913,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -916,7 +929,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -924,7 +937,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -932,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +961,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -964,7 +977,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -972,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +993,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -988,7 +1001,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,7 +1009,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1004,7 +1017,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1012,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1020,7 +1033,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1028,7 +1041,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1036,7 +1049,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1044,7 +1057,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1052,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1060,7 +1073,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1068,7 +1081,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1076,7 +1089,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1084,7 +1097,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1108,7 +1121,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1116,7 +1129,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1132,7 +1145,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1140,7 +1153,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1156,7 +1169,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1164,7 +1177,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1188,7 +1201,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1196,7 +1209,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1204,7 +1217,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1212,7 +1225,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1220,7 +1233,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1228,7 +1241,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1236,7 +1249,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1244,7 +1257,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1252,7 +1265,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1260,7 +1273,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1268,7 +1281,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1276,7 +1289,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1284,7 +1297,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1292,7 +1305,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1300,7 +1313,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1308,7 +1321,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1316,7 +1329,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1324,7 +1337,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1332,7 +1345,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1340,7 +1353,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1348,7 +1361,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1356,7 +1369,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1364,7 +1377,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1372,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1380,7 +1393,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1388,7 +1401,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1396,7 +1409,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1404,7 +1417,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1412,7 +1425,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1420,7 +1433,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1468,7 +1481,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1476,7 +1489,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1508,16 +1521,35 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C102" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
